--- a/orm2_labels.xlsx
+++ b/orm2_labels.xlsx
@@ -122,60 +122,15 @@
     <t>IHRE AUFGABEN: Personalführung und Einsatzplanung unter Berücksichtigung der gesetzlichen, tariflichen und betrieblichen Vorgaben</t>
   </si>
   <si>
-    <t>| Fachliche Leitung und Sicherstellung der Pflegequalität</t>
-  </si>
-  <si>
-    <t>| Koordinierung der Patientenversorgung sowie die Sicherstellung einer reibungslosen Zusammenarbeit</t>
-  </si>
-  <si>
-    <t>| Kooperative Zusammenarbeit mit anderen Berufsgruppen und externen Dienstleistern</t>
-  </si>
-  <si>
-    <t>| Aktive Beteiligung am Qualitätsmanagement</t>
-  </si>
-  <si>
-    <t>| Vertrauensvolle Zusammenarbeit mit dem Pflegedirektorium</t>
-  </si>
-  <si>
     <t>IHR PROFIL: Sie sind examinierter Gesundheits- und Krankenpfleger mit mehrjähriger Berufserfahrung und haben Erfahrung im Bereich der Notfallmedizin</t>
   </si>
   <si>
-    <t>| Sie verfügen über eine Weiterbildung für Leitungsfunktionen im Gesundheitswesen</t>
-  </si>
-  <si>
-    <t>| Sie haben hohe soziale Kompetenz in Verbindung mit der Fähigkeit, Mitarbeiter zu kreativen Lösungsansätzen im Team zu motivieren</t>
-  </si>
-  <si>
-    <t>| Sie sind zu berufsübergreifender Kooperation mit allen Mitarbeitern unseres Hauses bereit</t>
-  </si>
-  <si>
-    <t>| Sie verfügen über gute EDV-Kenntnisse</t>
-  </si>
-  <si>
     <t>WIR BIETEN:</t>
   </si>
   <si>
     <t>Ein interessantes, entwicklungsfähiges Aufgabengebiet</t>
   </si>
   <si>
-    <t>| In- und externe Fortbildungsmöglichkeiten</t>
-  </si>
-  <si>
-    <t>| Kostenlosen Zugang für CNE (Certified Nursing Education) vom Thieme Verlag</t>
-  </si>
-  <si>
-    <t>| Ein angenehmes Arbeitsklima</t>
-  </si>
-  <si>
-    <t>| Vergütung nach AVR/C</t>
-  </si>
-  <si>
-    <t>| Eine leistungsstarke betriebliche Altersvorsorge</t>
-  </si>
-  <si>
-    <t>| Arbeitgeberfinanzierte Betreuung bei Krankheit des Kindes</t>
-  </si>
-  <si>
     <t>Unsere Arbeitsatmosphäre ist geprägt durch ein Miteinander, das durch das christliche Menschenbild bestimmt ist.</t>
   </si>
   <si>
@@ -1221,6 +1176,51 @@
   </si>
   <si>
     <t>vielfältige Entwicklungs- und Aufstiegsmöglichkeiten, interne und externe Fortbildungen (inkl. Finanzierung und Freistellung)</t>
+  </si>
+  <si>
+    <t>Fachliche Leitung und Sicherstellung der Pflegequalität</t>
+  </si>
+  <si>
+    <t>Koordinierung der Patientenversorgung sowie die Sicherstellung einer reibungslosen Zusammenarbeit</t>
+  </si>
+  <si>
+    <t>Kooperative Zusammenarbeit mit anderen Berufsgruppen und externen Dienstleistern</t>
+  </si>
+  <si>
+    <t>Aktive Beteiligung am Qualitätsmanagement</t>
+  </si>
+  <si>
+    <t>Vertrauensvolle Zusammenarbeit mit dem Pflegedirektorium</t>
+  </si>
+  <si>
+    <t>Sie verfügen über eine Weiterbildung für Leitungsfunktionen im Gesundheitswesen</t>
+  </si>
+  <si>
+    <t>Sie haben hohe soziale Kompetenz in Verbindung mit der Fähigkeit, Mitarbeiter zu kreativen Lösungsansätzen im Team zu motivieren</t>
+  </si>
+  <si>
+    <t>Sie sind zu berufsübergreifender Kooperation mit allen Mitarbeitern unseres Hauses bereit</t>
+  </si>
+  <si>
+    <t>Sie verfügen über gute EDV-Kenntnisse</t>
+  </si>
+  <si>
+    <t>In- und externe Fortbildungsmöglichkeiten</t>
+  </si>
+  <si>
+    <t>Kostenlosen Zugang für CNE (Certified Nursing Education) vom Thieme Verlag</t>
+  </si>
+  <si>
+    <t>Ein angenehmes Arbeitsklima</t>
+  </si>
+  <si>
+    <t>Vergütung nach AVR/C</t>
+  </si>
+  <si>
+    <t>Eine leistungsstarke betriebliche Altersvorsorge</t>
+  </si>
+  <si>
+    <t>Arbeitgeberfinanzierte Betreuung bei Krankheit des Kindes</t>
   </si>
 </sst>
 </file>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +1884,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>384</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1895,7 +1895,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>385</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>386</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>388</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>389</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>394</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>395</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>396</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>397</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>398</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2244,10 +2244,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2277,10 +2277,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2288,10 +2288,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2299,10 +2299,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2321,10 +2321,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2354,10 +2354,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
         <v>65</v>
-      </c>
-      <c r="B78" t="s">
-        <v>80</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2453,10 +2453,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2475,10 +2475,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2486,10 +2486,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2519,10 +2519,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2530,10 +2530,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2541,10 +2541,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2552,10 +2552,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2563,10 +2563,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2574,10 +2574,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2607,10 +2607,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2629,10 +2629,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2640,10 +2640,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2673,10 +2673,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2684,10 +2684,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2695,10 +2695,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2706,10 +2706,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>80</v>
+      </c>
+      <c r="B107" t="s">
         <v>95</v>
-      </c>
-      <c r="B107" t="s">
-        <v>110</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2739,10 +2739,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2750,10 +2750,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2761,10 +2761,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2772,10 +2772,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2816,10 +2816,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2838,10 +2838,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2860,10 +2860,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B122" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2893,10 +2893,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2915,10 +2915,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2959,10 +2959,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2981,10 +2981,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2992,10 +2992,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3003,10 +3003,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3014,10 +3014,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3036,10 +3036,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3047,10 +3047,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3058,10 +3058,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3069,10 +3069,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3102,10 +3102,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B143" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3124,10 +3124,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3146,10 +3146,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3157,10 +3157,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3168,10 +3168,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3179,10 +3179,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -3212,10 +3212,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B152" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3234,10 +3234,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3256,10 +3256,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>127</v>
+      </c>
+      <c r="B156" t="s">
         <v>142</v>
-      </c>
-      <c r="B156" t="s">
-        <v>157</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3267,10 +3267,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3278,10 +3278,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3355,10 +3355,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3366,10 +3366,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3377,10 +3377,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3399,10 +3399,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3410,10 +3410,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3421,10 +3421,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3432,10 +3432,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3443,10 +3443,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3509,10 +3509,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3520,10 +3520,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3531,10 +3531,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3553,10 +3553,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3564,10 +3564,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B184" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B188" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3630,10 +3630,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3641,10 +3641,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>161</v>
+      </c>
+      <c r="B191" t="s">
         <v>176</v>
-      </c>
-      <c r="B191" t="s">
-        <v>191</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3674,10 +3674,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3685,10 +3685,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3696,10 +3696,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3707,10 +3707,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3718,10 +3718,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B198" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3751,10 +3751,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3773,10 +3773,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3784,10 +3784,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3795,10 +3795,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B207" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3839,10 +3839,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3861,10 +3861,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B211" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3872,10 +3872,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3883,10 +3883,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3894,10 +3894,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3905,10 +3905,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3916,10 +3916,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B216" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -3938,10 +3938,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B220" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3971,10 +3971,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B221" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3982,10 +3982,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B222" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>190</v>
+      </c>
+      <c r="B223" t="s">
         <v>205</v>
-      </c>
-      <c r="B223" t="s">
-        <v>220</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4004,10 +4004,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B224" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B225" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4026,10 +4026,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B226" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4037,10 +4037,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B227" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B228" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4070,10 +4070,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4081,10 +4081,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B231" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B232" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4103,10 +4103,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4114,10 +4114,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B234" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B235" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B236" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4147,10 +4147,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B239" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4180,10 +4180,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B240" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4191,10 +4191,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B242" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4213,10 +4213,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B243" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4224,10 +4224,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B244" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -4235,10 +4235,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B245" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -4246,10 +4246,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B246" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -4257,10 +4257,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B247" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B248" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -4279,10 +4279,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B249" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4290,10 +4290,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>217</v>
+      </c>
+      <c r="B250" t="s">
         <v>232</v>
-      </c>
-      <c r="B250" t="s">
-        <v>247</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4301,10 +4301,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B251" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4312,10 +4312,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B252" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4323,10 +4323,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B253" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4334,10 +4334,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B254" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4345,10 +4345,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B255" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4356,10 +4356,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B256" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4367,10 +4367,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B257" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4378,10 +4378,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B258" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4389,10 +4389,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B259" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4400,10 +4400,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B260" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4411,10 +4411,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B261" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4422,10 +4422,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B262" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4433,10 +4433,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B263" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4444,10 +4444,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B264" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4455,10 +4455,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B265" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4466,10 +4466,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B266" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -4477,10 +4477,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B267" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B268" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -4499,10 +4499,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B269" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4510,10 +4510,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B270" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>217</v>
+      </c>
+      <c r="B271" t="s">
         <v>232</v>
-      </c>
-      <c r="B271" t="s">
-        <v>247</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4532,10 +4532,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B272" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4543,10 +4543,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B273" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4554,10 +4554,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B274" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4565,10 +4565,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B275" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4576,10 +4576,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B276" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4587,10 +4587,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B277" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -4598,10 +4598,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B278" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B279" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -4620,10 +4620,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B280" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -4631,10 +4631,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B281" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -4642,10 +4642,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B282" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -4653,10 +4653,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B283" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -4664,10 +4664,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B284" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -4675,10 +4675,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B285" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -4686,10 +4686,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B286" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -4697,10 +4697,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B287" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -4708,10 +4708,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B288" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -4719,10 +4719,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B289" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -4730,10 +4730,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B290" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -4741,10 +4741,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B291" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -4752,10 +4752,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B292" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -4763,10 +4763,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B293" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -4774,10 +4774,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B294" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -4785,10 +4785,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B295" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -4796,10 +4796,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B296" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -4807,10 +4807,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B297" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -4818,10 +4818,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B298" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -4829,10 +4829,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B299" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -4840,10 +4840,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B300" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -4851,10 +4851,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B301" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -4862,10 +4862,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B302" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B303">
         <v>46</v>
@@ -4884,10 +4884,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B304" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -4895,10 +4895,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B305" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B306" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -4917,10 +4917,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B307" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -4928,10 +4928,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B308" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -4939,10 +4939,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B309" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -4950,10 +4950,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B310" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -4961,10 +4961,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B311" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -4972,10 +4972,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B312" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -4983,10 +4983,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B313" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -4994,10 +4994,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B314" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -5005,10 +5005,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B315" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5016,10 +5016,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B316" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -5027,10 +5027,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B317" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B318" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B319" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -5060,10 +5060,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B320" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B321" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5082,10 +5082,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B322" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5093,10 +5093,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B323" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -5104,10 +5104,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B324" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -5115,10 +5115,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B325" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -5126,10 +5126,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B326" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -5137,10 +5137,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B327" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -5148,10 +5148,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B328" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -5159,10 +5159,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B329" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -5170,10 +5170,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B330" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -5181,10 +5181,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B331" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -5192,10 +5192,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>276</v>
+      </c>
+      <c r="B332" t="s">
         <v>291</v>
-      </c>
-      <c r="B332" t="s">
-        <v>306</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -5203,10 +5203,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B333" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -5214,10 +5214,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B334" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -5225,10 +5225,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B335" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -5236,10 +5236,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B336" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -5247,10 +5247,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B337" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -5258,10 +5258,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B338" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -5269,10 +5269,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B339" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -5280,10 +5280,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B340" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -5291,10 +5291,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B341" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -5302,10 +5302,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B342" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -5313,10 +5313,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B343" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -5324,10 +5324,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B344" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -5335,10 +5335,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B345" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -5346,10 +5346,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B346" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -5357,10 +5357,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B347" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -5368,10 +5368,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B348" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B349" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B350" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5401,10 +5401,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B351" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -5412,10 +5412,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B352" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5423,10 +5423,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B353" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -5434,10 +5434,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B354" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -5445,10 +5445,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B355" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5456,10 +5456,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B356" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5467,10 +5467,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B357" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -5478,10 +5478,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B358" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5489,10 +5489,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B359" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B360" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -5511,10 +5511,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B361" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -5522,10 +5522,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B362" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -5533,10 +5533,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B363" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -5544,10 +5544,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B364" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -5555,10 +5555,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B365" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -5566,10 +5566,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B366" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -5577,10 +5577,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B367" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -5588,10 +5588,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B368" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B369" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -5610,10 +5610,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B370" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -5621,10 +5621,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B371" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -5632,10 +5632,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B372" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -5643,10 +5643,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B373" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -5654,10 +5654,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B374" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -5665,10 +5665,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B375" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -5676,10 +5676,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>319</v>
+      </c>
+      <c r="B376" t="s">
         <v>334</v>
-      </c>
-      <c r="B376" t="s">
-        <v>349</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -5687,10 +5687,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B377" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -5698,10 +5698,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B378" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -5709,10 +5709,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B379" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -5720,10 +5720,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B380" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B381" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -5742,10 +5742,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B382" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -5753,10 +5753,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B383" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -5764,10 +5764,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B384" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -5775,10 +5775,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B385" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -5786,10 +5786,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B386" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -5797,10 +5797,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B387" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -5808,10 +5808,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B388" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -5819,10 +5819,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B389" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -5830,10 +5830,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B390" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -5841,10 +5841,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B391" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -5852,10 +5852,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B392" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -5863,10 +5863,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B393" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -5874,10 +5874,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B394" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -5885,10 +5885,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>339</v>
+      </c>
+      <c r="B395" t="s">
         <v>354</v>
-      </c>
-      <c r="B395" t="s">
-        <v>369</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -5896,10 +5896,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B396" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -5907,10 +5907,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B397" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -5918,10 +5918,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B398" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -5929,10 +5929,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B399" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B400" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -5951,10 +5951,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B401" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -5962,10 +5962,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B402" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -5973,10 +5973,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B403" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -5984,10 +5984,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B404" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -5995,10 +5995,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B405" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -6006,10 +6006,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B406" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -6017,10 +6017,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B407" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -6028,10 +6028,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B408" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -6039,10 +6039,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B409" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -6050,10 +6050,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B410" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -6061,10 +6061,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B411" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -6072,10 +6072,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B412" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -6083,10 +6083,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B413" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -6094,10 +6094,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B414" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -6105,10 +6105,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B415" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B416" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -6127,10 +6127,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B417" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -6138,10 +6138,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B418" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B419" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -6160,10 +6160,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B420" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -6171,10 +6171,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B421" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B422" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -6193,10 +6193,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B423" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -6204,10 +6204,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B424" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -6215,10 +6215,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B425" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C425">
         <v>0</v>
